--- a/summary_statistics.xlsx
+++ b/summary_statistics.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>17,604</t>
+          <t>14,414</t>
         </is>
       </c>
     </row>
@@ -479,7 +479,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
@@ -489,7 +489,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1119</v>
+        <v>963</v>
       </c>
     </row>
     <row r="6">
@@ -500,7 +500,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2007-2022</t>
+          <t>2007-2021</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>workers</t>
+          <t>large_estab_intensity</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -558,27 +558,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>17,604</t>
+          <t>14,414</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>17,604</t>
+          <t>14,414</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>17,604</t>
+          <t>14,414</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>17,604</t>
+          <t>14,414</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>17604.00</t>
+          <t>14414.00</t>
         </is>
       </c>
     </row>
@@ -590,27 +590,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1,298</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>37,694</t>
+          <t>36,769</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>48,245</t>
+          <t>47,483</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>10,551</t>
+          <t>10,714</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.40</t>
         </is>
       </c>
     </row>
@@ -622,27 +622,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2,136</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>18,612</t>
+          <t>18,683</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>21,949</t>
+          <t>22,339</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>8,228</t>
+          <t>8,258</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>4.33</t>
         </is>
       </c>
     </row>
@@ -654,27 +654,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>24,000</t>
+          <t>22,000</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>32,294</t>
+          <t>30,650</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5,746</t>
+          <t>5,933</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1.18</t>
         </is>
       </c>
     </row>
@@ -686,27 +686,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>529</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>36,000</t>
+          <t>35,000</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>45,080</t>
+          <t>44,141</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>8,903</t>
+          <t>9,082</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>1.32</t>
         </is>
       </c>
     </row>
@@ -718,22 +718,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1,490</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>48,000</t>
+          <t>46,000</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>59,176</t>
+          <t>59,211</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>13,803</t>
+          <t>13,942</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -750,7 +750,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -782,7 +782,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>24,181</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -845,7 +845,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>21.9</t>
+          <t>18.9</t>
         </is>
       </c>
     </row>
@@ -857,7 +857,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -869,7 +869,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>19</t>
         </is>
       </c>
     </row>
@@ -881,7 +881,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>15.7</t>
+          <t>15.0</t>
         </is>
       </c>
     </row>
@@ -893,7 +893,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1100.2</t>
+          <t>960.9</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>94.1%</t>
+          <t>98.9%</t>
         </is>
       </c>
     </row>
@@ -917,7 +917,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>98.1%</t>
+          <t>99.2%</t>
         </is>
       </c>
     </row>
@@ -964,11 +964,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17604</v>
+        <v>961</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>6.67%</t>
         </is>
       </c>
     </row>
@@ -979,11 +979,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18721</v>
+        <v>961</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>106.35%</t>
+          <t>6.67%</t>
         </is>
       </c>
     </row>
@@ -994,11 +994,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>349</v>
+        <v>267</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.98%</t>
+          <t>1.85%</t>
         </is>
       </c>
     </row>
@@ -1009,11 +1009,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1669</v>
+        <v>506</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>9.48%</t>
+          <t>3.51%</t>
         </is>
       </c>
     </row>
@@ -1096,12 +1096,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4129</t>
+          <t>3368</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>23.5%</t>
+          <t>23.4%</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -1111,17 +1111,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>19</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1,236</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>622</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3113</t>
+          <t>2555</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1148,17 +1148,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>19</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1,359</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1170,7 +1170,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>5877</t>
+          <t>4810</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1185,17 +1185,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>19</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1,399</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4485</t>
+          <t>3681</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1222,17 +1222,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>19</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1,178</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1304,26 +1304,26 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8924</v>
+        <v>7684</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>50.7%</t>
+          <t>53.3%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1,251</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9,238</t>
+          <t>9,510</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>7,889</t>
+          <t>8,086</t>
         </is>
       </c>
     </row>
@@ -1339,26 +1339,26 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5480</v>
+        <v>4807</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>31.1%</t>
+          <t>33.3%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1,356</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>11,340</t>
+          <t>11,728</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>9,718</t>
+          <t>10,049</t>
         </is>
       </c>
     </row>
@@ -1370,30 +1370,30 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2020-2022</t>
+          <t>2020-2021</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3200</v>
+        <v>1923</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>18.2%</t>
+          <t>13.3%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1,328</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>12,859</t>
+          <t>12,988</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>10,999</t>
+          <t>11,329</t>
         </is>
       </c>
     </row>
